--- a/analysis/library/pipeline/deployment-schedules.xlsx
+++ b/analysis/library/pipeline/deployment-schedules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhemez/Floating-CORAL/CORAL/analysis/library/pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EA498C-F21C-264B-8A50-1BF0257F4D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E17C1D7-E8BE-BA40-B034-8724509741BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2320" yWindow="2440" windowWidth="26840" windowHeight="15940" activeTab="2" xr2:uid="{376075EB-C402-FE47-A91F-B8E9E5F08518}"/>
   </bookViews>
@@ -1529,7 +1529,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/analysis/library/pipeline/deployment-schedules.xlsx
+++ b/analysis/library/pipeline/deployment-schedules.xlsx
@@ -8,26 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhemez/Floating-CORAL/CORAL/analysis/library/pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E17C1D7-E8BE-BA40-B034-8724509741BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B36FE65-2B65-744A-9EA2-5C378737D388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="2440" windowWidth="26840" windowHeight="15940" activeTab="2" xr2:uid="{376075EB-C402-FE47-A91F-B8E9E5F08518}"/>
+    <workbookView xWindow="2320" yWindow="2440" windowWidth="26840" windowHeight="15940" xr2:uid="{376075EB-C402-FE47-A91F-B8E9E5F08518}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="1" r:id="rId1"/>
     <sheet name="Moderate" sheetId="2" r:id="rId2"/>
     <sheet name="Expanded" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.4" hidden="1">Baseline!$D$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Baseline!$D$2:$D$17</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Baseline!$E$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Baseline!$E$2:$E$17</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Baseline!$D$1</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Baseline!$D$2:$D$17</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Baseline!$E$1</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Baseline!$E$2:$E$17</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -444,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02999560-A088-6841-8DE7-7DBB7F032B52}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,7 +514,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A18" si="1">A3+1</f>
+        <f t="shared" ref="A4:A17" si="1">A3+1</f>
         <v>2032</v>
       </c>
       <c r="B4">
@@ -1528,7 +1518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C308FE40-1CCA-C24F-8503-190F87CFEFDE}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>

--- a/analysis/library/pipeline/deployment-schedules.xlsx
+++ b/analysis/library/pipeline/deployment-schedules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhemez/Floating-CORAL/CORAL/analysis/library/pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B36FE65-2B65-744A-9EA2-5C378737D388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAD12CE-F447-5648-B5FA-6AE395A381BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="2440" windowWidth="26840" windowHeight="15940" xr2:uid="{376075EB-C402-FE47-A91F-B8E9E5F08518}"/>
+    <workbookView xWindow="2320" yWindow="2440" windowWidth="26840" windowHeight="15940" activeTab="2" xr2:uid="{376075EB-C402-FE47-A91F-B8E9E5F08518}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02999560-A088-6841-8DE7-7DBB7F032B52}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1518,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C308FE40-1CCA-C24F-8503-190F87CFEFDE}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/analysis/library/pipeline/deployment-schedules.xlsx
+++ b/analysis/library/pipeline/deployment-schedules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhemez/Floating-CORAL/CORAL/analysis/library/pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAD12CE-F447-5648-B5FA-6AE395A381BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B694C1B1-2999-8C45-A381-406D62097517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="2440" windowWidth="26840" windowHeight="15940" activeTab="2" xr2:uid="{376075EB-C402-FE47-A91F-B8E9E5F08518}"/>
+    <workbookView xWindow="2320" yWindow="2440" windowWidth="26840" windowHeight="15940" xr2:uid="{376075EB-C402-FE47-A91F-B8E9E5F08518}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="1" r:id="rId1"/>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02999560-A088-6841-8DE7-7DBB7F032B52}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="184" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,31 +467,27 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <f>B2</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <f>C2</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <f>D2+E2</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f>A2+1</f>
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B3">
         <v>1000</v>
@@ -500,350 +496,374 @@
         <v>1000</v>
       </c>
       <c r="D3" s="1">
-        <f>B3+D2</f>
-        <v>2000</v>
+        <f>B3</f>
+        <v>1000</v>
       </c>
       <c r="E3" s="1">
-        <f>E2+C3</f>
-        <v>2000</v>
+        <f>C3</f>
+        <v>1000</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F17" si="0">D3+E3</f>
-        <v>4000</v>
+        <f>D3+E3</f>
+        <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A17" si="1">A3+1</f>
+        <f>A3+1</f>
+        <v>2031</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="1">
+        <f>B4+D3</f>
+        <v>2000</v>
+      </c>
+      <c r="E4" s="1">
+        <f>E3+C4</f>
+        <v>2000</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F18" si="0">D4+E4</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" ref="A5:A18" si="1">A4+1</f>
         <v>2032</v>
       </c>
-      <c r="B4">
-        <v>1000</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:D17" si="2">B4+D3</f>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:D18" si="2">B5+D4</f>
         <v>3000</v>
       </c>
-      <c r="E4" s="1">
-        <f t="shared" ref="E4:E17" si="3">E3+C4</f>
-        <v>2000</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:E18" si="3">E4+C5</f>
+        <v>2000</v>
+      </c>
+      <c r="F5" s="1">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
         <f t="shared" si="1"/>
         <v>2033</v>
       </c>
-      <c r="B5">
-        <v>1000</v>
-      </c>
-      <c r="C5">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="1">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="1">
         <f t="shared" si="3"/>
         <v>3000</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
         <f t="shared" si="1"/>
         <v>2034</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="1">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
         <f t="shared" si="1"/>
         <v>2035</v>
       </c>
-      <c r="B7">
-        <v>1000</v>
-      </c>
-      <c r="C7">
-        <v>1000</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="B8">
+        <v>1000</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="1">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="1">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F8" s="1">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
         <f t="shared" si="1"/>
         <v>2036</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1000</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="1">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="1">
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F9" s="1">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
         <f t="shared" si="1"/>
         <v>2037</v>
       </c>
-      <c r="B9">
-        <v>1000</v>
-      </c>
-      <c r="C9">
-        <v>1000</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="1">
         <f t="shared" si="2"/>
         <v>6000</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E10" s="1">
         <f t="shared" si="3"/>
         <v>7000</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F10" s="1">
         <f t="shared" si="0"/>
         <v>13000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
         <f t="shared" si="1"/>
         <v>2038</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1000</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="1">
         <f t="shared" si="2"/>
         <v>6000</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E11" s="1">
         <f t="shared" si="3"/>
         <v>8000</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F11" s="1">
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
         <f t="shared" si="1"/>
         <v>2039</v>
       </c>
-      <c r="B11">
-        <v>1000</v>
-      </c>
-      <c r="C11">
-        <v>1000</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="B12">
+        <v>1000</v>
+      </c>
+      <c r="C12">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="1">
         <f t="shared" si="2"/>
         <v>7000</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <f t="shared" si="3"/>
         <v>9000</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F12" s="1">
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
         <f t="shared" si="1"/>
         <v>2040</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>1000</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="1">
         <f t="shared" si="2"/>
         <v>7000</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="1">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F13" s="1">
         <f t="shared" si="0"/>
         <v>17000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
         <f t="shared" si="1"/>
         <v>2041</v>
       </c>
-      <c r="B13">
-        <v>1000</v>
-      </c>
-      <c r="C13">
-        <v>1000</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="B14">
+        <v>1000</v>
+      </c>
+      <c r="C14">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="1">
         <f t="shared" si="2"/>
         <v>8000</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E14" s="1">
         <f t="shared" si="3"/>
         <v>11000</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F14" s="1">
         <f t="shared" si="0"/>
         <v>19000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
         <f t="shared" si="1"/>
         <v>2042</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>1000</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="1">
         <f t="shared" si="2"/>
         <v>8000</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E15" s="1">
         <f t="shared" si="3"/>
         <v>12000</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F15" s="1">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
         <f t="shared" si="1"/>
         <v>2043</v>
       </c>
-      <c r="B15">
-        <v>1000</v>
-      </c>
-      <c r="C15">
-        <v>1000</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="B16">
+        <v>1000</v>
+      </c>
+      <c r="C16">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="1">
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E16" s="1">
         <f t="shared" si="3"/>
         <v>13000</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F16" s="1">
         <f t="shared" si="0"/>
         <v>22000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
         <f t="shared" si="1"/>
         <v>2044</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>1000</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="1">
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E17" s="1">
         <f t="shared" si="3"/>
         <v>14000</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F17" s="1">
         <f t="shared" si="0"/>
         <v>23000</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
         <f t="shared" si="1"/>
         <v>2045</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>2000</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>2000</v>
+      </c>
+      <c r="D18" s="1">
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E18" s="1">
         <f t="shared" si="3"/>
         <v>16000</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F18" s="1">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
@@ -855,14 +875,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2932BC-8C1A-2A42-B24E-D19C44641FE6}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
@@ -904,13 +928,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -919,30 +943,24 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <f>B2</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:I2" si="0">C2</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <f>SUM(F2:I2)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f>A2+1</f>
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B3">
         <v>1000</v>
@@ -957,92 +975,92 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <f>F2+B3</f>
-        <v>2000</v>
+        <f>B3</f>
+        <v>1000</v>
       </c>
       <c r="G3" s="1">
-        <f>G2+C3</f>
-        <v>2000</v>
+        <f t="shared" ref="G3:I3" si="0">C3</f>
+        <v>1000</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="G3:I17" si="1">H2+D3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J17" si="2">SUM(F3:I3)</f>
-        <v>4000</v>
+        <f>SUM(F3:I3)</f>
+        <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A16" si="3">A3+1</f>
-        <v>2032</v>
+        <f>A3+1</f>
+        <v>2031</v>
       </c>
       <c r="B4">
         <v>1000</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F17" si="4">F3+B4</f>
-        <v>3000</v>
+        <f>F3+B4</f>
+        <v>2000</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="1"/>
+        <f>G3+C4</f>
         <v>2000</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G4:I18" si="1">H3+D4</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="2"/>
-        <v>6000</v>
+        <f t="shared" ref="J4:J18" si="2">SUM(F4:I4)</f>
+        <v>4000</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" si="3"/>
-        <v>2033</v>
+        <f t="shared" ref="A5:A17" si="3">A4+1</f>
+        <v>2032</v>
       </c>
       <c r="B5">
         <v>1000</v>
       </c>
       <c r="C5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="4"/>
-        <v>4000</v>
+        <f t="shared" ref="F5:F18" si="4">F4+B5</f>
+        <v>3000</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
@@ -1050,25 +1068,25 @@
       </c>
       <c r="J5" s="1">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="3"/>
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C6">
         <v>1000</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="4"/>
@@ -1076,7 +1094,7 @@
       </c>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="1"/>
@@ -1084,41 +1102,41 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="2"/>
-        <v>11000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="3"/>
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>1000</v>
       </c>
       <c r="D7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="1"/>
@@ -1126,25 +1144,25 @@
       </c>
       <c r="J7" s="1">
         <f t="shared" si="2"/>
-        <v>14000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="3"/>
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C8">
         <v>1000</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E8">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="4"/>
@@ -1152,7 +1170,7 @@
       </c>
       <c r="G8" s="1">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="1"/>
@@ -1160,67 +1178,67 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="2"/>
-        <v>16000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="3"/>
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B9">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>1000</v>
       </c>
       <c r="D9">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-      <c r="G9" s="1">
-        <f t="shared" si="1"/>
-        <v>7000</v>
-      </c>
       <c r="H9" s="1">
         <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="I9" s="1">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
       <c r="J9" s="1">
         <f t="shared" si="2"/>
-        <v>19000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="3"/>
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C10">
         <v>1000</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E10">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="4"/>
@@ -1228,7 +1246,7 @@
       </c>
       <c r="G10" s="1">
         <f t="shared" si="1"/>
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="1"/>
@@ -1236,67 +1254,67 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="2"/>
-        <v>21000</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="3"/>
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>1000</v>
       </c>
       <c r="D11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="4"/>
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="1"/>
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-      <c r="I11" s="1">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
       <c r="J11" s="1">
         <f t="shared" si="2"/>
-        <v>24000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="3"/>
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C12">
         <v>1000</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E12">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="4"/>
@@ -1304,7 +1322,7 @@
       </c>
       <c r="G12" s="1">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="1"/>
@@ -1312,20 +1330,20 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="2"/>
-        <v>26000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="3"/>
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>1000</v>
@@ -1338,11 +1356,11 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" si="4"/>
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="1"/>
@@ -1350,20 +1368,20 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="2"/>
-        <v>29000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="3"/>
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C14">
         <v>1000</v>
@@ -1372,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="4"/>
@@ -1380,7 +1398,7 @@
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="1"/>
@@ -1392,16 +1410,16 @@
       </c>
       <c r="J14" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="3"/>
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>1000</v>
@@ -1414,11 +1432,11 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" si="4"/>
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="1"/>
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="1"/>
@@ -1430,16 +1448,16 @@
       </c>
       <c r="J15" s="1">
         <f t="shared" si="2"/>
-        <v>32000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="3"/>
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C16">
         <v>1000</v>
@@ -1456,7 +1474,7 @@
       </c>
       <c r="G16" s="1">
         <f t="shared" si="1"/>
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="1"/>
@@ -1468,43 +1486,81 @@
       </c>
       <c r="J16" s="1">
         <f t="shared" si="2"/>
-        <v>33000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f>A16+1</f>
+        <f t="shared" si="3"/>
+        <v>2044</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1000</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="4"/>
+        <v>9000</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="1"/>
+        <v>14000</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="2"/>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f>A17+1</f>
         <v>2045</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>2000</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>2000</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
         <f t="shared" si="4"/>
         <v>9000</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G18" s="1">
         <f t="shared" si="1"/>
         <v>16000</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H18" s="1">
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I18" s="1">
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J18" s="1">
         <f t="shared" si="2"/>
         <v>35000</v>
       </c>
@@ -1516,10 +1572,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C308FE40-1CCA-C24F-8503-190F87CFEFDE}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1569,13 +1625,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1587,34 +1643,27 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <f>B2</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
-        <f t="shared" ref="H2:K2" si="0">C2</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <f>SUM(G2:K2)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f>A2+1</f>
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B3">
         <v>1000</v>
@@ -1632,286 +1681,286 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <f>G2+B3</f>
-        <v>2000</v>
+        <f>B3</f>
+        <v>1000</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:K3" si="1">H2+C3</f>
-        <v>2000</v>
+        <f t="shared" ref="H3:K3" si="0">C3</f>
+        <v>1000</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L17" si="2">SUM(G3:K3)</f>
-        <v>4000</v>
+        <f>SUM(G3:K3)</f>
+        <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A17" si="3">A3+1</f>
-        <v>2032</v>
+        <f>A3+1</f>
+        <v>2031</v>
       </c>
       <c r="B4">
         <v>1000</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G17" si="4">G3+B4</f>
-        <v>3000</v>
+        <f>G3+B4</f>
+        <v>2000</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H17" si="5">H3+C4</f>
+        <f t="shared" ref="H4:K4" si="1">H3+C4</f>
         <v>2000</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I17" si="6">I3+D4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J17" si="7">J3+E4</f>
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K17" si="8">K3+F4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="2"/>
-        <v>6000</v>
+        <f t="shared" ref="L4:L18" si="2">SUM(G4:K4)</f>
+        <v>4000</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
+        <f t="shared" ref="A5:A18" si="3">A4+1</f>
+        <v>2032</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G18" si="4">G4+B5</f>
+        <v>3000</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:H18" si="5">H4+C5</f>
+        <v>2000</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I18" si="6">I4+D5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" ref="J5:J18" si="7">J4+E5</f>
+        <v>1000</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" ref="K5:K18" si="8">K4+F5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="2"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
         <f t="shared" si="3"/>
         <v>2033</v>
       </c>
-      <c r="B5">
-        <v>1000</v>
-      </c>
-      <c r="C5">
-        <v>1000</v>
-      </c>
-      <c r="D5">
-        <v>1000</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
         <f t="shared" si="4"/>
         <v>4000</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H6" s="1">
         <f t="shared" si="5"/>
         <v>3000</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I6" s="1">
         <f t="shared" si="6"/>
         <v>1000</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J6" s="1">
         <f t="shared" si="7"/>
         <v>1000</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K6" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L6" s="1">
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
         <f t="shared" si="3"/>
         <v>2034</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1000</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1000</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1000</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="4"/>
         <v>4000</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H7" s="1">
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I7" s="1">
         <f t="shared" si="6"/>
         <v>1000</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J7" s="1">
         <f t="shared" si="7"/>
         <v>2000</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K7" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L7" s="1">
         <f t="shared" si="2"/>
         <v>11000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
         <f t="shared" si="3"/>
         <v>2035</v>
       </c>
-      <c r="B7">
-        <v>1000</v>
-      </c>
-      <c r="C7">
-        <v>1000</v>
-      </c>
-      <c r="D7">
-        <v>1000</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="B8">
+        <v>1000</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H8" s="1">
         <f t="shared" si="5"/>
         <v>5000</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I8" s="1">
         <f t="shared" si="6"/>
         <v>2000</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J8" s="1">
         <f t="shared" si="7"/>
         <v>2000</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K8" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L8" s="1">
         <f t="shared" si="2"/>
         <v>14000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
         <f t="shared" si="3"/>
         <v>2036</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1000</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1000</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1000</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H9" s="1">
         <f t="shared" si="5"/>
         <v>6000</v>
       </c>
-      <c r="I8" s="1">
-        <f t="shared" si="6"/>
-        <v>2000</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="7"/>
-        <v>3000</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <f t="shared" si="2"/>
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <f t="shared" si="3"/>
-        <v>2037</v>
-      </c>
-      <c r="B9">
-        <v>1000</v>
-      </c>
-      <c r="C9">
-        <v>1000</v>
-      </c>
-      <c r="D9">
-        <v>1000</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="4"/>
-        <v>6000</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="5"/>
-        <v>7000</v>
-      </c>
       <c r="I9" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="7"/>
@@ -1923,25 +1972,25 @@
       </c>
       <c r="L9" s="1">
         <f t="shared" si="2"/>
-        <v>19000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="3"/>
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C10">
         <v>1000</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E10">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1952,7 +2001,7 @@
       </c>
       <c r="H10" s="1">
         <f t="shared" si="5"/>
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="6"/>
@@ -1960,7 +2009,7 @@
       </c>
       <c r="J10" s="1">
         <f t="shared" si="7"/>
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="8"/>
@@ -1968,22 +2017,22 @@
       </c>
       <c r="L10" s="1">
         <f t="shared" si="2"/>
-        <v>21000</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f>A10+1</f>
-        <v>2039</v>
+        <f t="shared" si="3"/>
+        <v>2038</v>
       </c>
       <c r="B11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>1000</v>
       </c>
       <c r="D11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>1000</v>
@@ -1993,19 +2042,19 @@
       </c>
       <c r="G11" s="1">
         <f t="shared" si="4"/>
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="5"/>
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="7"/>
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="8"/>
@@ -2013,28 +2062,28 @@
       </c>
       <c r="L11" s="1">
         <f t="shared" si="2"/>
-        <v>25000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="3"/>
-        <v>2040</v>
+        <f>A11+1</f>
+        <v>2039</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C12">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E12">
         <v>1000</v>
       </c>
       <c r="F12">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="4"/>
@@ -2042,7 +2091,7 @@
       </c>
       <c r="H12" s="1">
         <f t="shared" si="5"/>
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="6"/>
@@ -2050,30 +2099,30 @@
       </c>
       <c r="J12" s="1">
         <f t="shared" si="7"/>
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="8"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="2"/>
-        <v>29000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="3"/>
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>2000</v>
       </c>
       <c r="D13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>1000</v>
@@ -2083,33 +2132,33 @@
       </c>
       <c r="G13" s="1">
         <f t="shared" si="4"/>
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="5"/>
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="6"/>
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="7"/>
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="8"/>
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="2"/>
-        <v>35000</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="3"/>
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B14">
         <v>1000</v>
@@ -2118,7 +2167,7 @@
         <v>2000</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E14">
         <v>1000</v>
@@ -2128,11 +2177,11 @@
       </c>
       <c r="G14" s="1">
         <f t="shared" si="4"/>
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="5"/>
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="6"/>
@@ -2140,21 +2189,21 @@
       </c>
       <c r="J14" s="1">
         <f t="shared" si="7"/>
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="2"/>
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f>A14+1</f>
-        <v>2043</v>
+        <f t="shared" si="3"/>
+        <v>2042</v>
       </c>
       <c r="B15">
         <v>1000</v>
@@ -2163,25 +2212,25 @@
         <v>2000</v>
       </c>
       <c r="D15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F15">
         <v>1000</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="5"/>
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="6"/>
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="7"/>
@@ -2189,17 +2238,17 @@
       </c>
       <c r="K15" s="1">
         <f t="shared" si="8"/>
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="2"/>
-        <v>45000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f t="shared" si="3"/>
-        <v>2044</v>
+        <f>A15+1</f>
+        <v>2043</v>
       </c>
       <c r="B16">
         <v>1000</v>
@@ -2208,21 +2257,21 @@
         <v>2000</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E16">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>1000</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="4"/>
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="5"/>
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="6"/>
@@ -2230,33 +2279,33 @@
       </c>
       <c r="J16" s="1">
         <f t="shared" si="7"/>
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="8"/>
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="3"/>
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C17">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="D17">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F17">
         <v>1000</v>
@@ -2267,11 +2316,11 @@
       </c>
       <c r="H17" s="1">
         <f t="shared" si="5"/>
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="6"/>
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="7"/>
@@ -2279,40 +2328,85 @@
       </c>
       <c r="K17" s="1">
         <f t="shared" si="8"/>
+        <v>5000</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="2"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="3"/>
+        <v>2045</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>3000</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="4"/>
+        <v>11000</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="5"/>
+        <v>22000</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="6"/>
+        <v>7000</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="7"/>
+        <v>9000</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="8"/>
         <v>6000</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L18" s="1">
         <f t="shared" si="2"/>
         <v>55000</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <f>SUM(B2:B17)</f>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <f>SUM(B3:B18)</f>
         <v>11000</v>
       </c>
-      <c r="C18">
-        <f t="shared" ref="C18:F18" si="9">SUM(C2:C17)</f>
+      <c r="C19">
+        <f t="shared" ref="C19:F19" si="9">SUM(C3:C18)</f>
         <v>22000</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <f t="shared" si="9"/>
         <v>7000</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <f t="shared" si="9"/>
         <v>9000</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <f t="shared" si="9"/>
         <v>6000</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/analysis/library/pipeline/deployment-schedules.xlsx
+++ b/analysis/library/pipeline/deployment-schedules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhemez/Floating-CORAL/CORAL/analysis/library/pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B694C1B1-2999-8C45-A381-406D62097517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8396CA8-34A5-3548-B64B-EBB160329865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2320" yWindow="2440" windowWidth="26840" windowHeight="15940" xr2:uid="{376075EB-C402-FE47-A91F-B8E9E5F08518}"/>
   </bookViews>
@@ -115,9 +115,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,25 +435,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02999560-A088-6841-8DE7-7DBB7F032B52}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="184" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -469,19 +465,22 @@
       <c r="A2">
         <v>2029</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2" s="1">
+        <f>B2</f>
         <v>0</v>
       </c>
       <c r="E2" s="1">
+        <f>C2</f>
         <v>0</v>
       </c>
       <c r="F2" s="1">
+        <f>D2+E2</f>
         <v>0</v>
       </c>
     </row>
@@ -496,15 +495,15 @@
         <v>1000</v>
       </c>
       <c r="D3" s="1">
-        <f>B3</f>
+        <f>B3+D2</f>
         <v>1000</v>
       </c>
       <c r="E3" s="1">
-        <f>C3</f>
+        <f>E2+C3</f>
         <v>1000</v>
       </c>
       <c r="F3" s="1">
-        <f>D3+E3</f>
+        <f t="shared" ref="F3:F18" si="0">D3+E3</f>
         <v>2000</v>
       </c>
     </row>
@@ -528,7 +527,7 @@
         <v>2000</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F18" si="0">D4+E4</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
     </row>
@@ -540,15 +539,12 @@
       <c r="B5">
         <v>1000</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D18" si="2">B5+D4</f>
+        <f>B5+D4</f>
         <v>3000</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E18" si="3">E4+C5</f>
+        <f>E4+C5</f>
         <v>2000</v>
       </c>
       <c r="F5" s="1">
@@ -568,11 +564,11 @@
         <v>1000</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="2"/>
+        <f>B6+D5</f>
         <v>4000</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="3"/>
+        <f>E5+C6</f>
         <v>3000</v>
       </c>
       <c r="F6" s="1">
@@ -585,18 +581,15 @@
         <f t="shared" si="1"/>
         <v>2034</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
       <c r="C7">
         <v>1000</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="2"/>
+        <f>B7+D6</f>
         <v>4000</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="3"/>
+        <f>E6+C7</f>
         <v>4000</v>
       </c>
       <c r="F7" s="1">
@@ -616,11 +609,11 @@
         <v>1000</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="2"/>
+        <f>B8+D7</f>
         <v>5000</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="3"/>
+        <f>E7+C8</f>
         <v>5000</v>
       </c>
       <c r="F8" s="1">
@@ -633,18 +626,15 @@
         <f t="shared" si="1"/>
         <v>2036</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
       <c r="C9">
         <v>1000</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="2"/>
+        <f>B9+D8</f>
         <v>5000</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="3"/>
+        <f>E8+C9</f>
         <v>6000</v>
       </c>
       <c r="F9" s="1">
@@ -664,11 +654,11 @@
         <v>1000</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="2"/>
+        <f>B10+D9</f>
         <v>6000</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="3"/>
+        <f>E9+C10</f>
         <v>7000</v>
       </c>
       <c r="F10" s="1">
@@ -681,18 +671,15 @@
         <f t="shared" si="1"/>
         <v>2038</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
       <c r="C11">
         <v>1000</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="2"/>
+        <f>B11+D10</f>
         <v>6000</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="3"/>
+        <f>E10+C11</f>
         <v>8000</v>
       </c>
       <c r="F11" s="1">
@@ -712,11 +699,11 @@
         <v>1000</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="2"/>
+        <f>B12+D11</f>
         <v>7000</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="3"/>
+        <f>E11+C12</f>
         <v>9000</v>
       </c>
       <c r="F12" s="1">
@@ -729,18 +716,15 @@
         <f t="shared" si="1"/>
         <v>2040</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
       <c r="C13">
         <v>1000</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="2"/>
+        <f>B13+D12</f>
         <v>7000</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="3"/>
+        <f>E12+C13</f>
         <v>10000</v>
       </c>
       <c r="F13" s="1">
@@ -760,11 +744,11 @@
         <v>1000</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="2"/>
+        <f>B14+D13</f>
         <v>8000</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="3"/>
+        <f>E13+C14</f>
         <v>11000</v>
       </c>
       <c r="F14" s="1">
@@ -777,18 +761,15 @@
         <f t="shared" si="1"/>
         <v>2042</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
       <c r="C15">
         <v>1000</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="2"/>
+        <f>B15+D14</f>
         <v>8000</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="3"/>
+        <f>E14+C15</f>
         <v>12000</v>
       </c>
       <c r="F15" s="1">
@@ -808,11 +789,11 @@
         <v>1000</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="2"/>
+        <f>B16+D15</f>
         <v>9000</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="3"/>
+        <f>E15+C16</f>
         <v>13000</v>
       </c>
       <c r="F16" s="1">
@@ -825,18 +806,15 @@
         <f t="shared" si="1"/>
         <v>2044</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
       <c r="C17">
         <v>1000</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="2"/>
+        <f>B17+D16</f>
         <v>9000</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="3"/>
+        <f>E16+C17</f>
         <v>14000</v>
       </c>
       <c r="F17" s="1">
@@ -850,18 +828,18 @@
         <v>2045</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C18">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="2"/>
-        <v>9000</v>
+        <f>B18+D17</f>
+        <v>10000</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="3"/>
-        <v>16000</v>
+        <f>E17+C18</f>
+        <v>15000</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
@@ -878,7 +856,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1575,14 +1553,16 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">

--- a/analysis/library/pipeline/deployment-schedules.xlsx
+++ b/analysis/library/pipeline/deployment-schedules.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhemez/Floating-CORAL/CORAL/analysis/library/pipeline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshields\Documents\Projects\West Coast ports\Analysis\Deployment\CORAL\analysis\library\pipeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8396CA8-34A5-3548-B64B-EBB160329865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC71A1A-1BFD-4115-B94E-93E994ADD8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="2440" windowWidth="26840" windowHeight="15940" xr2:uid="{376075EB-C402-FE47-A91F-B8E9E5F08518}"/>
+    <workbookView xWindow="-28920" yWindow="-1320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{376075EB-C402-FE47-A91F-B8E9E5F08518}"/>
   </bookViews>
   <sheets>
-    <sheet name="Baseline" sheetId="1" r:id="rId1"/>
-    <sheet name="Moderate" sheetId="2" r:id="rId2"/>
-    <sheet name="Expanded" sheetId="3" r:id="rId3"/>
+    <sheet name="25 GW" sheetId="1" r:id="rId1"/>
+    <sheet name="35 GW" sheetId="2" r:id="rId2"/>
+    <sheet name="55 GW" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -115,10 +115,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,20 +434,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02999560-A088-6841-8DE7-7DBB7F032B52}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+    <sheetView zoomScale="142" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -461,14 +460,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2029</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" s="1">
@@ -484,7 +483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2030</v>
       </c>
@@ -495,19 +494,19 @@
         <v>1000</v>
       </c>
       <c r="D3" s="1">
-        <f>B3+D2</f>
+        <f t="shared" ref="D3:D18" si="0">B3+D2</f>
         <v>1000</v>
       </c>
       <c r="E3" s="1">
-        <f>E2+C3</f>
+        <f t="shared" ref="E3:E18" si="1">E2+C3</f>
         <v>1000</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F18" si="0">D3+E3</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" ref="F3:F18" si="2">D3+E3</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>A3+1</f>
         <v>2031</v>
@@ -519,330 +518,330 @@
         <v>1000</v>
       </c>
       <c r="D4" s="1">
-        <f>B4+D3</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="E4" s="1">
-        <f>E3+C4</f>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="F4" s="1">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f t="shared" ref="A5:A18" si="3">A4+1</f>
+        <v>2032</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <f t="shared" ref="A5:A18" si="1">A4+1</f>
-        <v>2032</v>
-      </c>
-      <c r="B5">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="1">
-        <f>B5+D4</f>
         <v>3000</v>
       </c>
       <c r="E5" s="1">
-        <f>E4+C5</f>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="F5" s="1">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f t="shared" si="3"/>
+        <v>2033</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <f t="shared" si="3"/>
+        <v>2034</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="2"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f t="shared" si="3"/>
+        <v>2035</v>
+      </c>
+      <c r="B8">
+        <v>1000</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <f t="shared" si="1"/>
-        <v>2033</v>
-      </c>
-      <c r="B6">
-        <v>1000</v>
-      </c>
-      <c r="C6">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="1">
-        <f>B6+D5</f>
-        <v>4000</v>
-      </c>
-      <c r="E6" s="1">
-        <f>E5+C6</f>
-        <v>3000</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f t="shared" si="3"/>
+        <v>2036</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="2"/>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f t="shared" si="3"/>
+        <v>2037</v>
+      </c>
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="1"/>
+        <v>7000</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="2"/>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f t="shared" si="3"/>
+        <v>2038</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="2"/>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <f t="shared" si="3"/>
+        <v>2039</v>
+      </c>
+      <c r="B12">
+        <v>1000</v>
+      </c>
+      <c r="C12">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <f t="shared" si="1"/>
-        <v>2034</v>
-      </c>
-      <c r="C7">
-        <v>1000</v>
-      </c>
-      <c r="D7" s="1">
-        <f>B7+D6</f>
-        <v>4000</v>
-      </c>
-      <c r="E7" s="1">
-        <f>E6+C7</f>
-        <v>4000</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>9000</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="2"/>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <f t="shared" si="3"/>
+        <v>2040</v>
+      </c>
+      <c r="C13">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>7000</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="2"/>
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <f t="shared" si="3"/>
+        <v>2041</v>
+      </c>
+      <c r="B14">
+        <v>1000</v>
+      </c>
+      <c r="C14">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <f t="shared" si="1"/>
-        <v>2035</v>
-      </c>
-      <c r="B8">
-        <v>1000</v>
-      </c>
-      <c r="C8">
-        <v>1000</v>
-      </c>
-      <c r="D8" s="1">
-        <f>B8+D7</f>
-        <v>5000</v>
-      </c>
-      <c r="E8" s="1">
-        <f>E7+C8</f>
-        <v>5000</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>11000</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="2"/>
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <f t="shared" si="3"/>
+        <v>2042</v>
+      </c>
+      <c r="C15">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <f t="shared" si="3"/>
+        <v>2043</v>
+      </c>
+      <c r="B16">
+        <v>1000</v>
+      </c>
+      <c r="C16">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>13000</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="2"/>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <f t="shared" si="3"/>
+        <v>2044</v>
+      </c>
+      <c r="C17">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>14000</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="2"/>
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <f t="shared" si="3"/>
+        <v>2045</v>
+      </c>
+      <c r="B18">
+        <v>1000</v>
+      </c>
+      <c r="C18">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="1">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <f t="shared" si="1"/>
-        <v>2036</v>
-      </c>
-      <c r="C9">
-        <v>1000</v>
-      </c>
-      <c r="D9" s="1">
-        <f>B9+D8</f>
-        <v>5000</v>
-      </c>
-      <c r="E9" s="1">
-        <f>E8+C9</f>
-        <v>6000</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <f t="shared" si="1"/>
-        <v>2037</v>
-      </c>
-      <c r="B10">
-        <v>1000</v>
-      </c>
-      <c r="C10">
-        <v>1000</v>
-      </c>
-      <c r="D10" s="1">
-        <f>B10+D9</f>
-        <v>6000</v>
-      </c>
-      <c r="E10" s="1">
-        <f>E9+C10</f>
-        <v>7000</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <f t="shared" si="1"/>
-        <v>2038</v>
-      </c>
-      <c r="C11">
-        <v>1000</v>
-      </c>
-      <c r="D11" s="1">
-        <f>B11+D10</f>
-        <v>6000</v>
-      </c>
-      <c r="E11" s="1">
-        <f>E10+C11</f>
-        <v>8000</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="0"/>
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <f t="shared" si="1"/>
-        <v>2039</v>
-      </c>
-      <c r="B12">
-        <v>1000</v>
-      </c>
-      <c r="C12">
-        <v>1000</v>
-      </c>
-      <c r="D12" s="1">
-        <f>B12+D11</f>
-        <v>7000</v>
-      </c>
-      <c r="E12" s="1">
-        <f>E11+C12</f>
-        <v>9000</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <f t="shared" si="1"/>
-        <v>2040</v>
-      </c>
-      <c r="C13">
-        <v>1000</v>
-      </c>
-      <c r="D13" s="1">
-        <f>B13+D12</f>
-        <v>7000</v>
-      </c>
-      <c r="E13" s="1">
-        <f>E12+C13</f>
-        <v>10000</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <f t="shared" si="1"/>
-        <v>2041</v>
-      </c>
-      <c r="B14">
-        <v>1000</v>
-      </c>
-      <c r="C14">
-        <v>1000</v>
-      </c>
-      <c r="D14" s="1">
-        <f>B14+D13</f>
-        <v>8000</v>
-      </c>
-      <c r="E14" s="1">
-        <f>E13+C14</f>
-        <v>11000</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="0"/>
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <f t="shared" si="1"/>
-        <v>2042</v>
-      </c>
-      <c r="C15">
-        <v>1000</v>
-      </c>
-      <c r="D15" s="1">
-        <f>B15+D14</f>
-        <v>8000</v>
-      </c>
-      <c r="E15" s="1">
-        <f>E14+C15</f>
-        <v>12000</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <f t="shared" si="1"/>
-        <v>2043</v>
-      </c>
-      <c r="B16">
-        <v>1000</v>
-      </c>
-      <c r="C16">
-        <v>1000</v>
-      </c>
-      <c r="D16" s="1">
-        <f>B16+D15</f>
-        <v>9000</v>
-      </c>
-      <c r="E16" s="1">
-        <f>E15+C16</f>
-        <v>13000</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="0"/>
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <f t="shared" si="1"/>
-        <v>2044</v>
-      </c>
-      <c r="C17">
-        <v>1000</v>
-      </c>
-      <c r="D17" s="1">
-        <f>B17+D16</f>
-        <v>9000</v>
-      </c>
-      <c r="E17" s="1">
-        <f>E16+C17</f>
-        <v>14000</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="0"/>
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <f t="shared" si="1"/>
-        <v>2045</v>
-      </c>
-      <c r="B18">
-        <v>1000</v>
-      </c>
-      <c r="C18">
-        <v>1000</v>
-      </c>
-      <c r="D18" s="1">
-        <f>B18+D17</f>
-        <v>10000</v>
-      </c>
       <c r="E18" s="1">
-        <f>E17+C18</f>
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25000</v>
       </c>
     </row>
@@ -859,7 +858,7 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
@@ -872,7 +871,7 @@
     <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -904,7 +903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2029</v>
       </c>
@@ -936,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2030</v>
       </c>
@@ -973,7 +972,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>A3+1</f>
         <v>2031</v>
@@ -1011,7 +1010,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" ref="A5:A17" si="3">A4+1</f>
         <v>2032</v>
@@ -1049,7 +1048,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="3"/>
         <v>2033</v>
@@ -1087,7 +1086,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="3"/>
         <v>2034</v>
@@ -1125,7 +1124,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="3"/>
         <v>2035</v>
@@ -1163,7 +1162,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="3"/>
         <v>2036</v>
@@ -1201,7 +1200,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="3"/>
         <v>2037</v>
@@ -1239,7 +1238,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="3"/>
         <v>2038</v>
@@ -1277,7 +1276,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="3"/>
         <v>2039</v>
@@ -1315,7 +1314,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="3"/>
         <v>2040</v>
@@ -1353,7 +1352,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="3"/>
         <v>2041</v>
@@ -1391,7 +1390,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="3"/>
         <v>2042</v>
@@ -1429,7 +1428,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="3"/>
         <v>2043</v>
@@ -1467,7 +1466,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="3"/>
         <v>2044</v>
@@ -1505,7 +1504,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <f>A17+1</f>
         <v>2045</v>
@@ -1552,11 +1551,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C308FE40-1CCA-C24F-8503-190F87CFEFDE}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
@@ -1565,7 +1564,7 @@
     <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1603,7 +1602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2029</v>
       </c>
@@ -1641,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2030</v>
       </c>
@@ -1685,7 +1684,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>A3+1</f>
         <v>2031</v>
@@ -1730,7 +1729,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" ref="A5:A18" si="3">A4+1</f>
         <v>2032</v>
@@ -1775,7 +1774,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="3"/>
         <v>2033</v>
@@ -1820,7 +1819,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="3"/>
         <v>2034</v>
@@ -1865,7 +1864,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="3"/>
         <v>2035</v>
@@ -1910,7 +1909,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="3"/>
         <v>2036</v>
@@ -1955,7 +1954,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="3"/>
         <v>2037</v>
@@ -2000,7 +1999,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="3"/>
         <v>2038</v>
@@ -2045,7 +2044,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <f>A11+1</f>
         <v>2039</v>
@@ -2090,7 +2089,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="3"/>
         <v>2040</v>
@@ -2135,7 +2134,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="3"/>
         <v>2041</v>
@@ -2180,7 +2179,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="3"/>
         <v>2042</v>
@@ -2225,7 +2224,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <f>A15+1</f>
         <v>2043</v>
@@ -2270,7 +2269,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="3"/>
         <v>2044</v>
@@ -2315,7 +2314,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="3"/>
         <v>2045</v>
@@ -2360,7 +2359,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B19">
         <f>SUM(B3:B18)</f>
         <v>11000</v>
